--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106182F-6993-42A1-A696-FB89C69D1A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD908BF1-76E3-4FC2-8DC3-5265260AC244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -31,18 +31,12 @@
     <t>is001</t>
   </si>
   <si>
-    <t>скопировать ссылку из скайп-чата Тестирование ПО</t>
-  </si>
-  <si>
     <t>вставить скопированную ссылку в браузерную строку</t>
   </si>
   <si>
     <t>перейти по ссылке в браузерной строке</t>
   </si>
   <si>
-    <t>ссылка копируется из скайп-чата Тестирование ПО</t>
-  </si>
-  <si>
     <t xml:space="preserve">скопированная ссылка вставляется в браузерную строку </t>
   </si>
   <si>
@@ -71,9 +65,6 @@
   </si>
   <si>
     <t>ввести Email: serenity-2010@mail.ru</t>
-  </si>
-  <si>
-    <t>ввести Password: 12369</t>
   </si>
   <si>
     <t>Залогинится</t>
@@ -296,6 +287,26 @@
   </si>
   <si>
     <t>на карточке 10 раз нажать Добавить товар в корзину</t>
+  </si>
+  <si>
+    <t>скопировать ссылку https://spreecommerce-demo.herokuapp.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ссылка копируется </t>
+  </si>
+  <si>
+    <t>использовать логин serenity@mail.ru
+пароль 1236974</t>
+  </si>
+  <si>
+    <t>использовать логин serenity@mail.ru
+пароль 1236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ввести Email: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ввести Password: </t>
   </si>
 </sst>
 </file>
@@ -343,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -366,11 +377,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -391,6 +439,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -708,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -748,26 +805,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -775,13 +832,13 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -789,237 +846,241 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1027,13 +1088,13 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1041,13 +1102,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -1055,43 +1116,43 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1099,133 +1160,133 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -1233,43 +1294,43 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -1277,79 +1338,79 @@
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E43" xr:uid="{4D972C0C-0035-406F-B61A-73501D5431CF}"/>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B42:D42"/>
@@ -1362,6 +1423,8 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B14:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="E33">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="fail">

--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD908BF1-76E3-4FC2-8DC3-5265260AC244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA09DA6-58EC-4014-97ED-DF248EB49CF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
